--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62625A40-8D0F-5643-9028-A5580389E510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063E29A-5B6B-7148-A070-75A3A2F2B02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="300">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>PASCO</t>
+  </si>
+  <si>
+    <t>AdmisionVacancia</t>
   </si>
 </sst>
 </file>
@@ -1302,1252 +1305,1472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
       <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>262</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>263</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>263</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>136</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>264</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>266</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>266</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>267</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>141</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>268</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>142</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>269</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>265</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>264</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>145</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>263</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>146</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>268</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>270</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>148</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>264</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>266</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>265</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>269</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>263</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>153</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>270</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>154</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>264</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>155</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>267</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>156</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>264</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>157</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>263</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>267</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>159</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>270</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>160</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>270</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>161</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>270</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>162</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>265</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>163</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>265</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>164</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>265</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>165</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>268</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>166</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>269</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>167</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>263</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>168</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>268</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>169</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>263</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>170</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>263</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>171</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>269</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>172</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>271</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
         <v>173</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>271</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
         <v>174</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>266</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>175</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>264</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>176</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>266</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>267</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>178</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>264</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>179</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>269</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
         <v>180</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>266</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>181</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>267</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
         <v>182</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>267</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>183</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>267</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>184</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>264</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>266</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
         <v>186</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>271</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>187</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>263</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>188</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>264</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>189</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>267</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>190</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>270</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
         <v>191</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>263</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>192</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>270</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>270</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>194</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>264</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>195</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>264</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>196</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>268</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
         <v>197</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>271</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>198</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>264</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>265</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>200</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>267</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>201</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>270</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>201</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>265</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>202</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>265</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>203</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>263</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>204</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>265</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2555,526 +2778,619 @@
         <v>131</v>
       </c>
       <c r="C74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" t="s">
         <v>205</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>264</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
         <v>206</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>263</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
         <v>207</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>268</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>208</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>269</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>209</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>264</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
         <v>210</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>270</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
         <v>211</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>271</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
         <v>212</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>271</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>213</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>263</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
         <v>214</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>270</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>215</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>264</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
         <v>216</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>271</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
         <v>217</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>265</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
         <v>218</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>264</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>219</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>264</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
         <v>220</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>263</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>221</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>266</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
         <v>222</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>263</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>268</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
         <v>224</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>270</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
         <v>225</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>268</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
         <v>226</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>263</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
         <v>227</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>263</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
         <v>227</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>269</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
         <v>228</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>265</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
         <v>229</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>270</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
         <v>230</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>270</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
         <v>231</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>263</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
         <v>232</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>264</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
         <v>233</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>263</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
         <v>234</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>264</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3082,587 +3398,668 @@
         <v>131</v>
       </c>
       <c r="C105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" t="s">
         <v>235</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>270</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
         <v>236</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>264</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
         <v>237</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>264</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
         <v>238</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>271</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
         <v>239</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>264</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
         <v>240</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>267</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
         <v>241</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>263</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
         <v>242</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>268</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
         <v>243</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>269</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
         <v>244</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>264</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
         <v>245</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>271</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
         <v>246</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>268</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
         <v>247</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>266</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>248</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>264</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
         <v>249</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>268</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
         <v>250</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>267</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
         <v>251</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>263</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
         <v>252</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>268</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
         <v>253</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>266</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
         <v>254</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>264</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
         <v>255</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>269</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
         <v>256</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>265</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
         <v>257</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>263</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
         <v>258</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>268</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>268</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
         <v>260</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>266</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
         <v>261</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>268</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>289</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:eacate@congreso.gob.pe" xr:uid="{296525B5-730D-8F44-89CF-B1C9122D7EAF}"/>
-    <hyperlink ref="C3" r:id="rId2" display="mailto:hacuna@congreso.gob.pe" xr:uid="{78B3C148-195B-8F4A-A539-557708B7AA17}"/>
-    <hyperlink ref="C4" r:id="rId3" display="mailto:maguilarz@congreso.gob.pe" xr:uid="{69A37C0A-098F-E241-A3B3-A445785B41DC}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{7BF7CE8C-677E-C048-8F0B-BF55B0191CD1}"/>
-    <hyperlink ref="C6" r:id="rId5" display="mailto:halencastre@congreso.gob.pe" xr:uid="{6A6EAB01-F3FD-924E-A145-F65F9BA6D054}"/>
-    <hyperlink ref="C7" r:id="rId6" display="mailto:galiaga@congreso.gob.pe" xr:uid="{B4319F9D-6BAF-E14A-9C6A-81F5D0DA7C70}"/>
-    <hyperlink ref="C8" r:id="rId7" display="mailto:calmeri@congreso.gob.pe" xr:uid="{3C81960D-2EB1-BE4F-A829-A6CD39CBF09F}"/>
-    <hyperlink ref="C9" r:id="rId8" display="mailto:galonzo@congreso.gob.pe" xr:uid="{2A1905B6-52D8-6B42-A3E5-43122DD807F7}"/>
-    <hyperlink ref="C10" r:id="rId9" display="mailto:jancalle@congreso.gob.pe" xr:uid="{BDBA3977-5C84-024A-8EE0-D04E17B2ECA3}"/>
-    <hyperlink ref="C11" r:id="rId10" display="mailto:yapaza@congreso.gob.pe" xr:uid="{F1520111-9DFD-F541-9071-4939791BFA16}"/>
-    <hyperlink ref="C12" r:id="rId11" display="mailto:jarapa@congreso.gob.pe" xr:uid="{E2D9CDF8-2148-4040-86C9-92994DE85FDE}"/>
-    <hyperlink ref="C13" r:id="rId12" display="mailto:wascona@congreso.gob.pe" xr:uid="{6A8768F3-A959-B74F-9EF8-F3730A319BA8}"/>
-    <hyperlink ref="C14" r:id="rId13" display="mailto:rayasta@congreso.gob.pe" xr:uid="{835E3E91-C90A-3D41-ACEB-85B914C2D3EA}"/>
-    <hyperlink ref="C15" r:id="rId14" display="mailto:jayquipa@congreso.gob.pe" xr:uid="{7CC48D9C-74B8-A04E-8113-B21AB06A1632}"/>
-    <hyperlink ref="C16" r:id="rId15" display="mailto:wbajonero@congreso.gob.pe" xr:uid="{159738ED-91A2-4D4C-AB5E-BA1643236E23}"/>
-    <hyperlink ref="C17" r:id="rId16" display="mailto:halencastre@congreso.gob.pe" xr:uid="{27923466-D735-5B49-AEB9-AAA33AD40ADA}"/>
-    <hyperlink ref="C18" r:id="rId17" display="mailto:mbartolo@congreso.gob.pe" xr:uid="{02A78301-009F-144E-A998-7ED092848F96}"/>
-    <hyperlink ref="C19" r:id="rId18" display="mailto:lbazan@congreso.gob.pe" xr:uid="{4FE04240-2FFC-9E48-8EFC-733E35A08BC4}"/>
-    <hyperlink ref="C20" r:id="rId19" display="mailto:wbenavides@congreso.gob.pe" xr:uid="{55E9F55D-31F1-9048-99EE-D206647417DB}"/>
-    <hyperlink ref="C21" r:id="rId20" display="mailto:abenites@congreso.gob.pe" xr:uid="{2C330F5C-CD47-7440-8F3E-C5311D20080C}"/>
-    <hyperlink ref="C22" r:id="rId21" display="mailto:rburga@congreso.gob.pe" xr:uid="{EFE041CB-B2BD-8340-B04D-3F6CE9D6E182}"/>
-    <hyperlink ref="C23" r:id="rId22" display="mailto:mcabrera@congreso.gob.pe" xr:uid="{FDC4CF78-DCC3-0148-B199-59AF9A60BBB7}"/>
-    <hyperlink ref="C24" r:id="rId23" display="mailto:r_campos@congreso.gob.pe" xr:uid="{720FDE5C-055A-944E-AB15-A3DFA7CF73D9}"/>
-    <hyperlink ref="C25" r:id="rId24" display="mailto:icarcausto@congreso.gob.pe" xr:uid="{86F85762-9246-6449-AB53-8349D0FF1C20}"/>
-    <hyperlink ref="C26" r:id="rId25" display="mailto:lcastilloo@congreso.gob.pe" xr:uid="{871EEF4F-6BE9-5649-833E-8581462E2BB9}"/>
-    <hyperlink ref="C28" r:id="rId26" display="mailto:wcayllahua@congreso.gob.pe" xr:uid="{0D099B79-45D2-3246-9617-511807A15BA5}"/>
-    <hyperlink ref="C27" r:id="rId27" display="mailto:lcayguaray@congreso.gob.pe" xr:uid="{86309692-DC32-8A4A-96C5-9CDC114F3D97}"/>
-    <hyperlink ref="C29" r:id="rId28" display="mailto:mcespedes@congreso.gob.pe" xr:uid="{3F98C2F3-31DF-9F45-8EA2-4465E0BEFA57}"/>
-    <hyperlink ref="C30" r:id="rId29" display="mailto:pchagua@congreso.gob.pe" xr:uid="{C952B3F6-758F-2747-BD3D-17C41C8B124D}"/>
-    <hyperlink ref="C31" r:id="rId30" display="mailto:hchaina@congreso.gob.pe" xr:uid="{036E61B0-0424-3E4A-8F09-B1C025FA0BBF}"/>
-    <hyperlink ref="C32" r:id="rId31" display="mailto:rchavarria@congreso.gob.pe" xr:uid="{CCF4564E-D6E5-3C41-B37D-2476050DCCDE}"/>
-    <hyperlink ref="C33" r:id="rId32" display="mailto:mchavez@congreso.gob.pe" xr:uid="{EB422C4E-4EDA-BB4A-9153-115E750592FC}"/>
-    <hyperlink ref="C36" r:id="rId33" display="mailto:dcolumbus@congreso.gob.pe" xr:uid="{7D6082D5-9DCE-304E-AC12-3D853D16F87F}"/>
-    <hyperlink ref="C35" r:id="rId34" display="mailto:ochehade@congreso.gob.pe" xr:uid="{8183E145-74E6-3645-AB74-68BBC76489C7}"/>
-    <hyperlink ref="C34" r:id="rId35" display="mailto:lchecco@congreso.gob.pe" xr:uid="{D2072B1F-AE4C-574B-85C7-13D95A9E3634}"/>
-    <hyperlink ref="C37" r:id="rId36" display="mailto:ccombina@congreso.gob.pe" xr:uid="{04C9281D-8859-1C43-B43C-DD4A6D4D92C0}"/>
-    <hyperlink ref="C38" r:id="rId37" display="mailto:jcondori@congreso.gob.pe" xr:uid="{3A9917E6-B04F-F141-97AF-16665A2090FC}"/>
-    <hyperlink ref="C39" r:id="rId38" display="mailto:ccontrerasb@congreso.gob.pe" xr:uid="{A2C1FC65-9DE6-B143-8F85-AE69B8F6C3D4}"/>
-    <hyperlink ref="C40" r:id="rId39" display="mailto:gcosta@congreso.gob.pe" xr:uid="{52823099-B835-1749-89B4-7286C470FE3B}"/>
-    <hyperlink ref="C41" r:id="rId40" display="mailto:adebelaunde@congreso.gob.pe" xr:uid="{C36ED606-784A-9E4D-A26B-894D2A36B122}"/>
-    <hyperlink ref="C42" r:id="rId41" display="mailto:ldioses@congreso.gob.pe" xr:uid="{D21548F9-1998-4943-A1FC-C64B6AAFC082}"/>
-    <hyperlink ref="C43" r:id="rId42" display="mailto:kdurand@congreso.gob.pe" xr:uid="{D34FA3F3-C64E-1C46-B1EF-22A2463CADF4}"/>
-    <hyperlink ref="C44" r:id="rId43" display="mailto:respinoza@congreso.gob.pe" xr:uid="{47A4E9B7-DAC5-7B45-B21A-7971C14D5578}"/>
-    <hyperlink ref="C45" r:id="rId44" display="mailto:yespinoza@congreso.gob.pe" xr:uid="{14D662E7-0247-6241-887D-C5B36FFBE310}"/>
-    <hyperlink ref="C47" r:id="rId45" display="mailto:cfernandezch@congreso.gob.pe" xr:uid="{EE28E1E2-9880-CC41-AD76-EA161B7F820E}"/>
-    <hyperlink ref="C46" r:id="rId46" display="mailto:yfabian@congreso.gob.pe" xr:uid="{84ACF510-E0A6-E54C-9279-A33E5BFBA4A5}"/>
-    <hyperlink ref="C48" r:id="rId47" display="mailto:mfernandez@congreso.gob.pe" xr:uid="{B66EFA27-C725-C64B-BAC4-C0C73EC88882}"/>
-    <hyperlink ref="C49" r:id="rId48" display="mailto:jfloresv@congreso.gob.pe" xr:uid="{EE0CC127-D6B3-9A41-8799-98C9382393AF}"/>
-    <hyperlink ref="C50" r:id="rId49" display="mailto:mgallardo@congreso.gob.pe" xr:uid="{4D3651F4-9E48-7F4B-B157-A1E28C391CA9}"/>
-    <hyperlink ref="C51" r:id="rId50" display="mailto:jgarciar@congreso.gob.pe" xr:uid="{35806AAB-B713-7A43-9977-0EE36D5E306D}"/>
-    <hyperlink ref="C52" r:id="rId51" display="mailto:mgonzaless@congreso.gob.pe" xr:uid="{C0F3AC93-71B7-0841-88A7-2E5A0A3F2C8D}"/>
-    <hyperlink ref="C54" r:id="rId52" display="mailto:mgonzaless@congreso.gob.pe" xr:uid="{AB960D82-6B09-3741-83D7-817180728850}"/>
-    <hyperlink ref="C55" r:id="rId53" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fmgonzalezc%40congreso.gob.pe" xr:uid="{0354752E-9298-E140-8374-8ED5B3145618}"/>
-    <hyperlink ref="C53" r:id="rId54" display="mailto:cgonzales@congreso.gob.pe" xr:uid="{D5DE120B-C0FE-6D42-AA33-C3CC8097E1D0}"/>
-    <hyperlink ref="C56" r:id="rId55" display="mailto:oguibovich@congreso.gob.pe" xr:uid="{BECC64D0-94EB-EC41-85F2-79ABAB2EE985}"/>
-    <hyperlink ref="C57" r:id="rId56" display="mailto:rgupioc@congreso.gob.pe" xr:uid="{E8EED591-AC48-114F-AF4D-F8F5AA7E37FC}"/>
-    <hyperlink ref="C58" r:id="rId57" display="mailto:rgutarra@congreso.gob.pe" xr:uid="{E4B8BFCE-07F5-B947-84F6-C194F571D927}"/>
-    <hyperlink ref="C59" r:id="rId58" display="mailto:ahidalgo@congreso.gob.pe" xr:uid="{8A5F5BAA-9C6B-2747-8327-18B403997377}"/>
-    <hyperlink ref="C60" r:id="rId59" display="mailto:jhuamanch@congreso.gob.pe" xr:uid="{0B178639-D1EB-4B48-92EA-8FE083C7752C}"/>
-    <hyperlink ref="C61" r:id="rId60" display="mailto:rmachaca@congreso.gob.pe" xr:uid="{72DC37FC-EE93-A64F-99BF-601F93551F38}"/>
-    <hyperlink ref="C62" r:id="rId61" display="mailto:lingas@congreso.gob.pe" xr:uid="{B7C4B4C5-1501-C74B-BC61-E7AB2199F7F9}"/>
-    <hyperlink ref="C63" r:id="rId62" display="mailto:llazo@congreso.gob.pe" xr:uid="{32CE8B7F-98B8-0147-B798-519F6A6204DE}"/>
-    <hyperlink ref="C64" r:id="rId63" display="mailto:mlizana@congreso.gob.pe" xr:uid="{B1C91E7A-2B9F-D846-9C97-0E7D234E1AC9}"/>
-    <hyperlink ref="C65" r:id="rId64" display="mailto:clizarraga@congreso.gob.pe" xr:uid="{BF5FDAF3-2749-F348-A04D-A038FBBA6195}"/>
-    <hyperlink ref="C66" r:id="rId65" display="mailto:fllaulli@congreso.gob.pe" xr:uid="{5519186A-27B2-A845-B186-376F00A59FBD}"/>
-    <hyperlink ref="C68" r:id="rId66" display="mailto:jlunam@congreso.gob.pe" xr:uid="{C444ACC2-4399-D246-B8F9-1F2A69B64AE3}"/>
-    <hyperlink ref="C67" r:id="rId67" display="mailto:alozano@congreso.gob.pe" xr:uid="{89998770-88C9-5541-ADE3-CA0593FE476E}"/>
-    <hyperlink ref="C69" r:id="rId68" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fjmamani%40congreso.gob.pe" xr:uid="{C99F85F0-379E-E243-A5B0-18DA3781DDF0}"/>
-    <hyperlink ref="C70" r:id="rId69" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fjmamani%40congreso.gob.pe" xr:uid="{16DD32F0-3A46-D341-A195-845AA5922B21}"/>
-    <hyperlink ref="C72" r:id="rId70" display="mailto:fmelendez@congreso.gob.pe" xr:uid="{3124D4F0-E0AE-E44D-9246-B71330681DCE}"/>
-    <hyperlink ref="C71" r:id="rId71" display="mailto:hmaquera@congreso.gob.pe" xr:uid="{D2FA92A5-CBE3-9743-9F1F-86CF13549441}"/>
-    <hyperlink ref="C74" r:id="rId72" display="mailto:amerino@congreso.gob.pe" xr:uid="{EFAE25D8-9331-A44B-BEEB-C1DE38650DA1}"/>
-    <hyperlink ref="C73" r:id="rId73" display="mailto:jmendoza@congreso.gob.pe" xr:uid="{97562134-87E5-CB4C-A304-CE30AC02908F}"/>
-    <hyperlink ref="C75" r:id="rId74" display="mailto:omerino@congreso.gob.pe" xr:uid="{C80FF9AD-E013-B945-81F6-063D3D0410FC}"/>
-    <hyperlink ref="C76" r:id="rId75" display="mailto:cmesia@congreso.gob.pe" xr:uid="{8CF50318-A267-B04F-8AA2-4E71421CC413}"/>
-    <hyperlink ref="C77" r:id="rId76" display="mailto:amontoya@congreso.gob.pe" xr:uid="{B214AFC3-DFDE-CD4B-917C-4F4F33E0F283}"/>
-    <hyperlink ref="C78" r:id="rId77" display="mailto:anovoa@congreso.gob.pe" xr:uid="{68D6A0F5-7F70-634F-B235-19F5603F1C64}"/>
-    <hyperlink ref="C79" r:id="rId78" display="mailto:jnunez@congreso.gob.pe" xr:uid="{CF3398DF-EE48-F049-96D3-CAC76C386836}"/>
-    <hyperlink ref="C80" r:id="rId79" display="mailto:lchecco@congreso.gob.pe" xr:uid="{15F13424-3DA0-C845-A248-3F25DBCD2D14}"/>
-    <hyperlink ref="C81" r:id="rId80" display="mailto:dolivares@congreso.gob.pe" xr:uid="{CADE1F79-EB8B-7246-B204-4E55C2AFB14D}"/>
-    <hyperlink ref="C82" r:id="rId81" display="mailto:momonte@congreso.gob.pe" xr:uid="{C8500AA7-DF07-4A4E-9BD5-E8E085A45A69}"/>
-    <hyperlink ref="C84" r:id="rId82" display="mailto:joyola@congreso.gob.pe" xr:uid="{47259A52-2DFF-5441-830E-57861778DA4C}"/>
-    <hyperlink ref="C85" r:id="rId83" display="mailto:apalomino@congreso.gob.pe" xr:uid="{F42D2F86-B748-4940-9D09-C9A2F194A876}"/>
-    <hyperlink ref="C86" r:id="rId84" display="mailto:rpantoja@congreso.gob.pe" xr:uid="{5555FDC7-18F1-354F-9603-6B88235CF597}"/>
-    <hyperlink ref="C89" r:id="rId85" display="mailto:jperezm@congreso.gob.pe" xr:uid="{F4799693-4EAC-8E46-9508-030F58A18B60}"/>
-    <hyperlink ref="C87" r:id="rId86" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Frparedes%40congreso.gob.pe" xr:uid="{9D0CD4FB-2726-8F49-8B1C-0135680EEB26}"/>
-    <hyperlink ref="C88" r:id="rId87" display="mailto:cperezo@congreso.gob.pe" xr:uid="{B19ED149-D399-FB40-8AAD-F3EF493FFFBE}"/>
-    <hyperlink ref="C90" r:id="rId88" display="mailto:jperezf@congreso.gob.pe" xr:uid="{18A69309-DFCA-204E-AE1C-16AE7530F8A2}"/>
-    <hyperlink ref="C91" r:id="rId89" display="mailto:lperez@congreso.gob.pe" xr:uid="{29FDE906-C207-C34E-8253-4F258C1358B0}"/>
-    <hyperlink ref="C92" r:id="rId90" display="mailto:mpichilingue@congreso.gob.pe" xr:uid="{D83BBC49-AD02-964A-AA6A-543FD920D2FE}"/>
-    <hyperlink ref="C93" r:id="rId91" display="mailto:ipineda@congreso.gob.pe" xr:uid="{506F3BB0-2120-F04E-9F60-D668B5E8098D}"/>
-    <hyperlink ref="C94" r:id="rId92" display="mailto:lpinedoa@congreso.gob.pe" xr:uid="{62874308-90CF-DA46-9EC4-1F2F83AF2FEE}"/>
-    <hyperlink ref="C96" r:id="rId93" display="mailto:mquispes@congreso.gob.pe" xr:uid="{C595FB8A-BEEF-AD44-9E9E-FB7C471C14B8}"/>
-    <hyperlink ref="C97" r:id="rId94" display="mailto:mquispes@congreso.gob.pe" xr:uid="{B901F96C-4054-2240-BB83-09DEE07E70C0}"/>
-    <hyperlink ref="C98" r:id="rId95" display="mailto:rramos@congreso.gob.pe" xr:uid="{FA81763E-2744-C041-B788-2DC388623941}"/>
-    <hyperlink ref="C99" r:id="rId96" display="mailto:arayme@congreso.gob.pe" xr:uid="{ACE4B7CA-839F-AD4A-812A-C867B27F175A}"/>
-    <hyperlink ref="C100" r:id="rId97" display="mailto:mretamozo@congreso.gob.pe" xr:uid="{CA2603E3-D6EE-9F46-98F2-D2BCB24B49DB}"/>
-    <hyperlink ref="C102" r:id="rId98" display="mailto:wriverag@congreso.gob.pe" xr:uid="{31A707D5-CE11-9548-A8B3-A843D3F34DA4}"/>
-    <hyperlink ref="C101" r:id="rId99" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fjmamani%40congreso.gob.pe" xr:uid="{27B0539B-5AA3-7944-8440-AC9D7E5C1B7D}"/>
-    <hyperlink ref="C109" r:id="rId100" display="mailto:fsalinas@congreso.gob.pe" xr:uid="{A2876B2D-A3C0-F540-B179-7F54FA9D856F}"/>
-    <hyperlink ref="C105" r:id="rId101" display="mailto:rrubio@congreso.gob.pe" xr:uid="{2FC88D56-E338-CF43-B4C0-C16FC478CD73}"/>
-    <hyperlink ref="C107" r:id="rId102" display="mailto:msaavedra@congreso.gob.pe" xr:uid="{6EE3150E-A89A-2449-B596-6358855DC975}"/>
-    <hyperlink ref="C104" r:id="rId103" display="mailto:lroel@congreso.gob.pe" xr:uid="{020F95A1-94AA-994C-9336-BC82095F35CC}"/>
-    <hyperlink ref="C103" r:id="rId104" display="mailto:trodas@congreso.gob.pe" xr:uid="{951A3005-24CE-2641-9BB9-E72282638A88}"/>
-    <hyperlink ref="C106" r:id="rId105" display="mailto:rruiz@congreso.gob.pe" xr:uid="{83813D01-DFE2-B24C-BFDD-D95F7ECBAC28}"/>
-    <hyperlink ref="C108" r:id="rId106" display="mailto:fsagasti@congreso.gob.pe" xr:uid="{0B5A26DD-A07C-EE4F-8E1D-1065B7958E54}"/>
-    <hyperlink ref="C110" r:id="rId107" display="mailto:osanchez@congreso.gob.pe" xr:uid="{FDB762AB-419A-0C4A-B36A-D46507B358D2}"/>
-    <hyperlink ref="C111" r:id="rId108" display="mailto:rsantillana@congreso.gob.pe" xr:uid="{2257549E-237D-EB4F-B220-29200EAEE5CF}"/>
-    <hyperlink ref="C113" r:id="rId109" display="mailto:rsilvas@congreso.gob.pe" xr:uid="{5C6EA399-5563-6041-A138-B4C2D0E0F529}"/>
-    <hyperlink ref="C112" r:id="rId110" display="mailto:msilupu@congreso.gob.pe" xr:uid="{BE31A7A6-8DF1-144A-B61F-0B2D7D3A75D3}"/>
-    <hyperlink ref="C114" r:id="rId111" display="mailto:lsimeon@congreso.gob.pe" xr:uid="{43277CED-3942-8F48-A473-BAE25146309E}"/>
-    <hyperlink ref="C115" r:id="rId112" display="mailto:zsolis@congreso.gob.pe" xr:uid="{A77D385A-F81B-EC47-BA4D-0937C92C3165}"/>
-    <hyperlink ref="C116" r:id="rId113" display="mailto:etito@congreso.gob.pe" xr:uid="{E73D971E-F821-2449-BA82-467522E86894}"/>
-    <hyperlink ref="C117" r:id="rId114" display="mailto:ftocto@congreso.gob.pe" xr:uid="{8497D2D7-6921-F044-AB13-9766A7367E6B}"/>
-    <hyperlink ref="C118" r:id="rId115" display="mailto:htroyes@congreso.gob.pe" xr:uid="{F901831A-68AE-0048-9BD5-955504631712}"/>
-    <hyperlink ref="C119" r:id="rId116" display="mailto:gtrujillo@congreso.gob.pe" xr:uid="{F8F17E28-B085-924A-ACB2-B0CAC98B03C6}"/>
-    <hyperlink ref="C120" r:id="rId117" display="mailto:durresti@congreso.gob.pe" xr:uid="{77EC0AFE-6293-364C-9604-8828A9D0B860}"/>
-    <hyperlink ref="C121" r:id="rId118" display="mailto:lvaldez@congreso.gob.pe" xr:uid="{BFEEEA94-A0F8-8A49-98F8-B1E2A1959D0A}"/>
-    <hyperlink ref="C122" r:id="rId119" display="mailto:vvaler@congreso.gob.pe" xr:uid="{957141BF-B8CF-DF41-9C1C-F921CBDA3BBC}"/>
-    <hyperlink ref="C123" r:id="rId120" display="mailto:gvasquez@congreso.gob.pe" xr:uid="{E473F7C2-5440-6D4C-93A6-5ADB467211F4}"/>
-    <hyperlink ref="C124" r:id="rId121" display="mailto:jvasquezb@congreso.gob.pe" xr:uid="{6D1E719B-E15E-0C4F-A264-D30AE153B4C3}"/>
-    <hyperlink ref="C126" r:id="rId122" display="mailto:jvegaa@congreso.gob.pe" xr:uid="{D8E659AD-7532-CB47-BEA4-02AD17FA9B95}"/>
-    <hyperlink ref="C125" r:id="rId123" display="mailto:mvasquezch@congreso.gob.pe" xr:uid="{9AA2098C-FFD1-8A48-97DA-5506CFF773A0}"/>
-    <hyperlink ref="C127" r:id="rId124" display="mailto:mverde@congreso.gob.pe" xr:uid="{BF56A0CE-C2A7-404F-A9A6-7905433908B8}"/>
-    <hyperlink ref="C128" r:id="rId125" display="mailto:wvigo@congreso.gob.pe" xr:uid="{AF3078A1-2BC0-8B49-B779-EFCCF328C06B}"/>
-    <hyperlink ref="C129" r:id="rId126" display="mailto:mvivanco@congreso.gob.pe" xr:uid="{5D02085E-76F4-DC42-9071-03041617B96D}"/>
-    <hyperlink ref="C130" r:id="rId127" display="mailto:myupanqui@congreso.gob.pe" xr:uid="{FC4B8CC7-16EA-4C48-B88E-28A41A9D4857}"/>
-    <hyperlink ref="C131" r:id="rId128" display="mailto:ezarate@congreso.gob.pe" xr:uid="{CCE1CB47-30E2-6C4A-9125-BEBE2FF6573B}"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:eacate@congreso.gob.pe" xr:uid="{296525B5-730D-8F44-89CF-B1C9122D7EAF}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:hacuna@congreso.gob.pe" xr:uid="{78B3C148-195B-8F4A-A539-557708B7AA17}"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:maguilarz@congreso.gob.pe" xr:uid="{69A37C0A-098F-E241-A3B3-A445785B41DC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{7BF7CE8C-677E-C048-8F0B-BF55B0191CD1}"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:halencastre@congreso.gob.pe" xr:uid="{6A6EAB01-F3FD-924E-A145-F65F9BA6D054}"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:galiaga@congreso.gob.pe" xr:uid="{B4319F9D-6BAF-E14A-9C6A-81F5D0DA7C70}"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:calmeri@congreso.gob.pe" xr:uid="{3C81960D-2EB1-BE4F-A829-A6CD39CBF09F}"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:galonzo@congreso.gob.pe" xr:uid="{2A1905B6-52D8-6B42-A3E5-43122DD807F7}"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:jancalle@congreso.gob.pe" xr:uid="{BDBA3977-5C84-024A-8EE0-D04E17B2ECA3}"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:yapaza@congreso.gob.pe" xr:uid="{F1520111-9DFD-F541-9071-4939791BFA16}"/>
+    <hyperlink ref="D12" r:id="rId11" display="mailto:jarapa@congreso.gob.pe" xr:uid="{E2D9CDF8-2148-4040-86C9-92994DE85FDE}"/>
+    <hyperlink ref="D13" r:id="rId12" display="mailto:wascona@congreso.gob.pe" xr:uid="{6A8768F3-A959-B74F-9EF8-F3730A319BA8}"/>
+    <hyperlink ref="D14" r:id="rId13" display="mailto:rayasta@congreso.gob.pe" xr:uid="{835E3E91-C90A-3D41-ACEB-85B914C2D3EA}"/>
+    <hyperlink ref="D15" r:id="rId14" display="mailto:jayquipa@congreso.gob.pe" xr:uid="{7CC48D9C-74B8-A04E-8113-B21AB06A1632}"/>
+    <hyperlink ref="D16" r:id="rId15" display="mailto:wbajonero@congreso.gob.pe" xr:uid="{159738ED-91A2-4D4C-AB5E-BA1643236E23}"/>
+    <hyperlink ref="D17" r:id="rId16" display="mailto:halencastre@congreso.gob.pe" xr:uid="{27923466-D735-5B49-AEB9-AAA33AD40ADA}"/>
+    <hyperlink ref="D18" r:id="rId17" display="mailto:mbartolo@congreso.gob.pe" xr:uid="{02A78301-009F-144E-A998-7ED092848F96}"/>
+    <hyperlink ref="D19" r:id="rId18" display="mailto:lbazan@congreso.gob.pe" xr:uid="{4FE04240-2FFC-9E48-8EFC-733E35A08BC4}"/>
+    <hyperlink ref="D20" r:id="rId19" display="mailto:wbenavides@congreso.gob.pe" xr:uid="{55E9F55D-31F1-9048-99EE-D206647417DB}"/>
+    <hyperlink ref="D21" r:id="rId20" display="mailto:abenites@congreso.gob.pe" xr:uid="{2C330F5C-CD47-7440-8F3E-C5311D20080C}"/>
+    <hyperlink ref="D22" r:id="rId21" display="mailto:rburga@congreso.gob.pe" xr:uid="{EFE041CB-B2BD-8340-B04D-3F6CE9D6E182}"/>
+    <hyperlink ref="D23" r:id="rId22" display="mailto:mcabrera@congreso.gob.pe" xr:uid="{FDC4CF78-DCC3-0148-B199-59AF9A60BBB7}"/>
+    <hyperlink ref="D24" r:id="rId23" display="mailto:r_campos@congreso.gob.pe" xr:uid="{720FDE5C-055A-944E-AB15-A3DFA7CF73D9}"/>
+    <hyperlink ref="D25" r:id="rId24" display="mailto:icarcausto@congreso.gob.pe" xr:uid="{86F85762-9246-6449-AB53-8349D0FF1C20}"/>
+    <hyperlink ref="D26" r:id="rId25" display="mailto:lcastilloo@congreso.gob.pe" xr:uid="{871EEF4F-6BE9-5649-833E-8581462E2BB9}"/>
+    <hyperlink ref="D28" r:id="rId26" display="mailto:wcayllahua@congreso.gob.pe" xr:uid="{0D099B79-45D2-3246-9617-511807A15BA5}"/>
+    <hyperlink ref="D27" r:id="rId27" display="mailto:lcayguaray@congreso.gob.pe" xr:uid="{86309692-DC32-8A4A-96C5-9CDC114F3D97}"/>
+    <hyperlink ref="D29" r:id="rId28" display="mailto:mcespedes@congreso.gob.pe" xr:uid="{3F98C2F3-31DF-9F45-8EA2-4465E0BEFA57}"/>
+    <hyperlink ref="D30" r:id="rId29" display="mailto:pchagua@congreso.gob.pe" xr:uid="{C952B3F6-758F-2747-BD3D-17C41C8B124D}"/>
+    <hyperlink ref="D31" r:id="rId30" display="mailto:hchaina@congreso.gob.pe" xr:uid="{036E61B0-0424-3E4A-8F09-B1C025FA0BBF}"/>
+    <hyperlink ref="D32" r:id="rId31" display="mailto:rchavarria@congreso.gob.pe" xr:uid="{CCF4564E-D6E5-3C41-B37D-2476050DCCDE}"/>
+    <hyperlink ref="D33" r:id="rId32" display="mailto:mchavez@congreso.gob.pe" xr:uid="{EB422C4E-4EDA-BB4A-9153-115E750592FC}"/>
+    <hyperlink ref="D36" r:id="rId33" display="mailto:dcolumbus@congreso.gob.pe" xr:uid="{7D6082D5-9DCE-304E-AC12-3D853D16F87F}"/>
+    <hyperlink ref="D35" r:id="rId34" display="mailto:ochehade@congreso.gob.pe" xr:uid="{8183E145-74E6-3645-AB74-68BBC76489C7}"/>
+    <hyperlink ref="D34" r:id="rId35" display="mailto:lchecco@congreso.gob.pe" xr:uid="{D2072B1F-AE4C-574B-85C7-13D95A9E3634}"/>
+    <hyperlink ref="D37" r:id="rId36" display="mailto:ccombina@congreso.gob.pe" xr:uid="{04C9281D-8859-1C43-B43C-DD4A6D4D92C0}"/>
+    <hyperlink ref="D38" r:id="rId37" display="mailto:jcondori@congreso.gob.pe" xr:uid="{3A9917E6-B04F-F141-97AF-16665A2090FC}"/>
+    <hyperlink ref="D39" r:id="rId38" display="mailto:ccontrerasb@congreso.gob.pe" xr:uid="{A2C1FC65-9DE6-B143-8F85-AE69B8F6C3D4}"/>
+    <hyperlink ref="D40" r:id="rId39" display="mailto:gcosta@congreso.gob.pe" xr:uid="{52823099-B835-1749-89B4-7286C470FE3B}"/>
+    <hyperlink ref="D41" r:id="rId40" display="mailto:adebelaunde@congreso.gob.pe" xr:uid="{C36ED606-784A-9E4D-A26B-894D2A36B122}"/>
+    <hyperlink ref="D42" r:id="rId41" display="mailto:ldioses@congreso.gob.pe" xr:uid="{D21548F9-1998-4943-A1FC-C64B6AAFC082}"/>
+    <hyperlink ref="D43" r:id="rId42" display="mailto:kdurand@congreso.gob.pe" xr:uid="{D34FA3F3-C64E-1C46-B1EF-22A2463CADF4}"/>
+    <hyperlink ref="D44" r:id="rId43" display="mailto:respinoza@congreso.gob.pe" xr:uid="{47A4E9B7-DAC5-7B45-B21A-7971C14D5578}"/>
+    <hyperlink ref="D45" r:id="rId44" display="mailto:yespinoza@congreso.gob.pe" xr:uid="{14D662E7-0247-6241-887D-C5B36FFBE310}"/>
+    <hyperlink ref="D47" r:id="rId45" display="mailto:cfernandezch@congreso.gob.pe" xr:uid="{EE28E1E2-9880-CC41-AD76-EA161B7F820E}"/>
+    <hyperlink ref="D46" r:id="rId46" display="mailto:yfabian@congreso.gob.pe" xr:uid="{84ACF510-E0A6-E54C-9279-A33E5BFBA4A5}"/>
+    <hyperlink ref="D48" r:id="rId47" display="mailto:mfernandez@congreso.gob.pe" xr:uid="{B66EFA27-C725-C64B-BAC4-C0C73EC88882}"/>
+    <hyperlink ref="D49" r:id="rId48" display="mailto:jfloresv@congreso.gob.pe" xr:uid="{EE0CC127-D6B3-9A41-8799-98C9382393AF}"/>
+    <hyperlink ref="D50" r:id="rId49" display="mailto:mgallardo@congreso.gob.pe" xr:uid="{4D3651F4-9E48-7F4B-B157-A1E28C391CA9}"/>
+    <hyperlink ref="D51" r:id="rId50" display="mailto:jgarciar@congreso.gob.pe" xr:uid="{35806AAB-B713-7A43-9977-0EE36D5E306D}"/>
+    <hyperlink ref="D52" r:id="rId51" display="mailto:mgonzaless@congreso.gob.pe" xr:uid="{C0F3AC93-71B7-0841-88A7-2E5A0A3F2C8D}"/>
+    <hyperlink ref="D54" r:id="rId52" display="mailto:mgonzaless@congreso.gob.pe" xr:uid="{AB960D82-6B09-3741-83D7-817180728850}"/>
+    <hyperlink ref="D55" r:id="rId53" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fmgonzalezc%40congreso.gob.pe" xr:uid="{0354752E-9298-E140-8374-8ED5B3145618}"/>
+    <hyperlink ref="D53" r:id="rId54" display="mailto:cgonzales@congreso.gob.pe" xr:uid="{D5DE120B-C0FE-6D42-AA33-C3CC8097E1D0}"/>
+    <hyperlink ref="D56" r:id="rId55" display="mailto:oguibovich@congreso.gob.pe" xr:uid="{BECC64D0-94EB-EC41-85F2-79ABAB2EE985}"/>
+    <hyperlink ref="D57" r:id="rId56" display="mailto:rgupioc@congreso.gob.pe" xr:uid="{E8EED591-AC48-114F-AF4D-F8F5AA7E37FC}"/>
+    <hyperlink ref="D58" r:id="rId57" display="mailto:rgutarra@congreso.gob.pe" xr:uid="{E4B8BFCE-07F5-B947-84F6-C194F571D927}"/>
+    <hyperlink ref="D59" r:id="rId58" display="mailto:ahidalgo@congreso.gob.pe" xr:uid="{8A5F5BAA-9C6B-2747-8327-18B403997377}"/>
+    <hyperlink ref="D60" r:id="rId59" display="mailto:jhuamanch@congreso.gob.pe" xr:uid="{0B178639-D1EB-4B48-92EA-8FE083C7752C}"/>
+    <hyperlink ref="D61" r:id="rId60" display="mailto:rmachaca@congreso.gob.pe" xr:uid="{72DC37FC-EE93-A64F-99BF-601F93551F38}"/>
+    <hyperlink ref="D62" r:id="rId61" display="mailto:lingas@congreso.gob.pe" xr:uid="{B7C4B4C5-1501-C74B-BC61-E7AB2199F7F9}"/>
+    <hyperlink ref="D63" r:id="rId62" display="mailto:llazo@congreso.gob.pe" xr:uid="{32CE8B7F-98B8-0147-B798-519F6A6204DE}"/>
+    <hyperlink ref="D64" r:id="rId63" display="mailto:mlizana@congreso.gob.pe" xr:uid="{B1C91E7A-2B9F-D846-9C97-0E7D234E1AC9}"/>
+    <hyperlink ref="D65" r:id="rId64" display="mailto:clizarraga@congreso.gob.pe" xr:uid="{BF5FDAF3-2749-F348-A04D-A038FBBA6195}"/>
+    <hyperlink ref="D66" r:id="rId65" display="mailto:fllaulli@congreso.gob.pe" xr:uid="{5519186A-27B2-A845-B186-376F00A59FBD}"/>
+    <hyperlink ref="D68" r:id="rId66" display="mailto:jlunam@congreso.gob.pe" xr:uid="{C444ACC2-4399-D246-B8F9-1F2A69B64AE3}"/>
+    <hyperlink ref="D67" r:id="rId67" display="mailto:alozano@congreso.gob.pe" xr:uid="{89998770-88C9-5541-ADE3-CA0593FE476E}"/>
+    <hyperlink ref="D69" r:id="rId68" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fjmamani%40congreso.gob.pe" xr:uid="{C99F85F0-379E-E243-A5B0-18DA3781DDF0}"/>
+    <hyperlink ref="D70" r:id="rId69" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fjmamani%40congreso.gob.pe" xr:uid="{16DD32F0-3A46-D341-A195-845AA5922B21}"/>
+    <hyperlink ref="D72" r:id="rId70" display="mailto:fmelendez@congreso.gob.pe" xr:uid="{3124D4F0-E0AE-E44D-9246-B71330681DCE}"/>
+    <hyperlink ref="D71" r:id="rId71" display="mailto:hmaquera@congreso.gob.pe" xr:uid="{D2FA92A5-CBE3-9743-9F1F-86CF13549441}"/>
+    <hyperlink ref="D74" r:id="rId72" display="mailto:amerino@congreso.gob.pe" xr:uid="{EFAE25D8-9331-A44B-BEEB-C1DE38650DA1}"/>
+    <hyperlink ref="D73" r:id="rId73" display="mailto:jmendoza@congreso.gob.pe" xr:uid="{97562134-87E5-CB4C-A304-CE30AC02908F}"/>
+    <hyperlink ref="D75" r:id="rId74" display="mailto:omerino@congreso.gob.pe" xr:uid="{C80FF9AD-E013-B945-81F6-063D3D0410FC}"/>
+    <hyperlink ref="D76" r:id="rId75" display="mailto:cmesia@congreso.gob.pe" xr:uid="{8CF50318-A267-B04F-8AA2-4E71421CC413}"/>
+    <hyperlink ref="D77" r:id="rId76" display="mailto:amontoya@congreso.gob.pe" xr:uid="{B214AFC3-DFDE-CD4B-917C-4F4F33E0F283}"/>
+    <hyperlink ref="D78" r:id="rId77" display="mailto:anovoa@congreso.gob.pe" xr:uid="{68D6A0F5-7F70-634F-B235-19F5603F1C64}"/>
+    <hyperlink ref="D79" r:id="rId78" display="mailto:jnunez@congreso.gob.pe" xr:uid="{CF3398DF-EE48-F049-96D3-CAC76C386836}"/>
+    <hyperlink ref="D80" r:id="rId79" display="mailto:lchecco@congreso.gob.pe" xr:uid="{15F13424-3DA0-C845-A248-3F25DBCD2D14}"/>
+    <hyperlink ref="D81" r:id="rId80" display="mailto:dolivares@congreso.gob.pe" xr:uid="{CADE1F79-EB8B-7246-B204-4E55C2AFB14D}"/>
+    <hyperlink ref="D82" r:id="rId81" display="mailto:momonte@congreso.gob.pe" xr:uid="{C8500AA7-DF07-4A4E-9BD5-E8E085A45A69}"/>
+    <hyperlink ref="D84" r:id="rId82" display="mailto:joyola@congreso.gob.pe" xr:uid="{47259A52-2DFF-5441-830E-57861778DA4C}"/>
+    <hyperlink ref="D85" r:id="rId83" display="mailto:apalomino@congreso.gob.pe" xr:uid="{F42D2F86-B748-4940-9D09-C9A2F194A876}"/>
+    <hyperlink ref="D86" r:id="rId84" display="mailto:rpantoja@congreso.gob.pe" xr:uid="{5555FDC7-18F1-354F-9603-6B88235CF597}"/>
+    <hyperlink ref="D89" r:id="rId85" display="mailto:jperezm@congreso.gob.pe" xr:uid="{F4799693-4EAC-8E46-9508-030F58A18B60}"/>
+    <hyperlink ref="D87" r:id="rId86" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Frparedes%40congreso.gob.pe" xr:uid="{9D0CD4FB-2726-8F49-8B1C-0135680EEB26}"/>
+    <hyperlink ref="D88" r:id="rId87" display="mailto:cperezo@congreso.gob.pe" xr:uid="{B19ED149-D399-FB40-8AAD-F3EF493FFFBE}"/>
+    <hyperlink ref="D90" r:id="rId88" display="mailto:jperezf@congreso.gob.pe" xr:uid="{18A69309-DFCA-204E-AE1C-16AE7530F8A2}"/>
+    <hyperlink ref="D91" r:id="rId89" display="mailto:lperez@congreso.gob.pe" xr:uid="{29FDE906-C207-C34E-8253-4F258C1358B0}"/>
+    <hyperlink ref="D92" r:id="rId90" display="mailto:mpichilingue@congreso.gob.pe" xr:uid="{D83BBC49-AD02-964A-AA6A-543FD920D2FE}"/>
+    <hyperlink ref="D93" r:id="rId91" display="mailto:ipineda@congreso.gob.pe" xr:uid="{506F3BB0-2120-F04E-9F60-D668B5E8098D}"/>
+    <hyperlink ref="D94" r:id="rId92" display="mailto:lpinedoa@congreso.gob.pe" xr:uid="{62874308-90CF-DA46-9EC4-1F2F83AF2FEE}"/>
+    <hyperlink ref="D96" r:id="rId93" display="mailto:mquispes@congreso.gob.pe" xr:uid="{C595FB8A-BEEF-AD44-9E9E-FB7C471C14B8}"/>
+    <hyperlink ref="D97" r:id="rId94" display="mailto:mquispes@congreso.gob.pe" xr:uid="{B901F96C-4054-2240-BB83-09DEE07E70C0}"/>
+    <hyperlink ref="D98" r:id="rId95" display="mailto:rramos@congreso.gob.pe" xr:uid="{FA81763E-2744-C041-B788-2DC388623941}"/>
+    <hyperlink ref="D99" r:id="rId96" display="mailto:arayme@congreso.gob.pe" xr:uid="{ACE4B7CA-839F-AD4A-812A-C867B27F175A}"/>
+    <hyperlink ref="D100" r:id="rId97" display="mailto:mretamozo@congreso.gob.pe" xr:uid="{CA2603E3-D6EE-9F46-98F2-D2BCB24B49DB}"/>
+    <hyperlink ref="D102" r:id="rId98" display="mailto:wriverag@congreso.gob.pe" xr:uid="{31A707D5-CE11-9548-A8B3-A843D3F34DA4}"/>
+    <hyperlink ref="D101" r:id="rId99" display="http://www.congreso.gob.pe/index.php?Kfn=CongresistasRegion%2F&amp;K=5532&amp;File=%2FDocs%2Fspa%2Fjmamani%40congreso.gob.pe" xr:uid="{27B0539B-5AA3-7944-8440-AC9D7E5C1B7D}"/>
+    <hyperlink ref="D109" r:id="rId100" display="mailto:fsalinas@congreso.gob.pe" xr:uid="{A2876B2D-A3C0-F540-B179-7F54FA9D856F}"/>
+    <hyperlink ref="D105" r:id="rId101" display="mailto:rrubio@congreso.gob.pe" xr:uid="{2FC88D56-E338-CF43-B4C0-C16FC478CD73}"/>
+    <hyperlink ref="D107" r:id="rId102" display="mailto:msaavedra@congreso.gob.pe" xr:uid="{6EE3150E-A89A-2449-B596-6358855DC975}"/>
+    <hyperlink ref="D104" r:id="rId103" display="mailto:lroel@congreso.gob.pe" xr:uid="{020F95A1-94AA-994C-9336-BC82095F35CC}"/>
+    <hyperlink ref="D103" r:id="rId104" display="mailto:trodas@congreso.gob.pe" xr:uid="{951A3005-24CE-2641-9BB9-E72282638A88}"/>
+    <hyperlink ref="D106" r:id="rId105" display="mailto:rruiz@congreso.gob.pe" xr:uid="{83813D01-DFE2-B24C-BFDD-D95F7ECBAC28}"/>
+    <hyperlink ref="D108" r:id="rId106" display="mailto:fsagasti@congreso.gob.pe" xr:uid="{0B5A26DD-A07C-EE4F-8E1D-1065B7958E54}"/>
+    <hyperlink ref="D110" r:id="rId107" display="mailto:osanchez@congreso.gob.pe" xr:uid="{FDB762AB-419A-0C4A-B36A-D46507B358D2}"/>
+    <hyperlink ref="D111" r:id="rId108" display="mailto:rsantillana@congreso.gob.pe" xr:uid="{2257549E-237D-EB4F-B220-29200EAEE5CF}"/>
+    <hyperlink ref="D113" r:id="rId109" display="mailto:rsilvas@congreso.gob.pe" xr:uid="{5C6EA399-5563-6041-A138-B4C2D0E0F529}"/>
+    <hyperlink ref="D112" r:id="rId110" display="mailto:msilupu@congreso.gob.pe" xr:uid="{BE31A7A6-8DF1-144A-B61F-0B2D7D3A75D3}"/>
+    <hyperlink ref="D114" r:id="rId111" display="mailto:lsimeon@congreso.gob.pe" xr:uid="{43277CED-3942-8F48-A473-BAE25146309E}"/>
+    <hyperlink ref="D115" r:id="rId112" display="mailto:zsolis@congreso.gob.pe" xr:uid="{A77D385A-F81B-EC47-BA4D-0937C92C3165}"/>
+    <hyperlink ref="D116" r:id="rId113" display="mailto:etito@congreso.gob.pe" xr:uid="{E73D971E-F821-2449-BA82-467522E86894}"/>
+    <hyperlink ref="D117" r:id="rId114" display="mailto:ftocto@congreso.gob.pe" xr:uid="{8497D2D7-6921-F044-AB13-9766A7367E6B}"/>
+    <hyperlink ref="D118" r:id="rId115" display="mailto:htroyes@congreso.gob.pe" xr:uid="{F901831A-68AE-0048-9BD5-955504631712}"/>
+    <hyperlink ref="D119" r:id="rId116" display="mailto:gtrujillo@congreso.gob.pe" xr:uid="{F8F17E28-B085-924A-ACB2-B0CAC98B03C6}"/>
+    <hyperlink ref="D120" r:id="rId117" display="mailto:durresti@congreso.gob.pe" xr:uid="{77EC0AFE-6293-364C-9604-8828A9D0B860}"/>
+    <hyperlink ref="D121" r:id="rId118" display="mailto:lvaldez@congreso.gob.pe" xr:uid="{BFEEEA94-A0F8-8A49-98F8-B1E2A1959D0A}"/>
+    <hyperlink ref="D122" r:id="rId119" display="mailto:vvaler@congreso.gob.pe" xr:uid="{957141BF-B8CF-DF41-9C1C-F921CBDA3BBC}"/>
+    <hyperlink ref="D123" r:id="rId120" display="mailto:gvasquez@congreso.gob.pe" xr:uid="{E473F7C2-5440-6D4C-93A6-5ADB467211F4}"/>
+    <hyperlink ref="D124" r:id="rId121" display="mailto:jvasquezb@congreso.gob.pe" xr:uid="{6D1E719B-E15E-0C4F-A264-D30AE153B4C3}"/>
+    <hyperlink ref="D126" r:id="rId122" display="mailto:jvegaa@congreso.gob.pe" xr:uid="{D8E659AD-7532-CB47-BEA4-02AD17FA9B95}"/>
+    <hyperlink ref="D125" r:id="rId123" display="mailto:mvasquezch@congreso.gob.pe" xr:uid="{9AA2098C-FFD1-8A48-97DA-5506CFF773A0}"/>
+    <hyperlink ref="D127" r:id="rId124" display="mailto:mverde@congreso.gob.pe" xr:uid="{BF56A0CE-C2A7-404F-A9A6-7905433908B8}"/>
+    <hyperlink ref="D128" r:id="rId125" display="mailto:wvigo@congreso.gob.pe" xr:uid="{AF3078A1-2BC0-8B49-B779-EFCCF328C06B}"/>
+    <hyperlink ref="D129" r:id="rId126" display="mailto:mvivanco@congreso.gob.pe" xr:uid="{5D02085E-76F4-DC42-9071-03041617B96D}"/>
+    <hyperlink ref="D130" r:id="rId127" display="mailto:myupanqui@congreso.gob.pe" xr:uid="{FC4B8CC7-16EA-4C48-B88E-28A41A9D4857}"/>
+    <hyperlink ref="D131" r:id="rId128" display="mailto:ezarate@congreso.gob.pe" xr:uid="{CCE1CB47-30E2-6C4A-9125-BEBE2FF6573B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063E29A-5B6B-7148-A070-75A3A2F2B02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BC221-B4A5-3048-9E3C-76595F841366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
+    <workbookView xWindow="29780" yWindow="1740" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -934,6 +934,12 @@
   </si>
   <si>
     <t>AdmisionVacancia</t>
+  </si>
+  <si>
+    <t>Sentencia1</t>
+  </si>
+  <si>
+    <t>Sentencia2</t>
   </si>
 </sst>
 </file>
@@ -1305,21 +1311,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G1" sqref="G1:H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1338,8 +1345,14 @@
       <c r="F1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1358,8 +1371,14 @@
       <c r="F2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1378,8 +1397,14 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1398,8 +1423,14 @@
       <c r="F4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1449,14 @@
       <c r="F5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1438,8 +1475,14 @@
       <c r="F6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1458,8 +1501,14 @@
       <c r="F7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1478,8 +1527,14 @@
       <c r="F8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1498,8 +1553,14 @@
       <c r="F9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1518,8 +1579,14 @@
       <c r="F10" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1538,8 +1605,14 @@
       <c r="F11" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1558,8 +1631,14 @@
       <c r="F12" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1578,8 +1657,14 @@
       <c r="F13" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1598,8 +1683,14 @@
       <c r="F14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1618,8 +1709,14 @@
       <c r="F15" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1638,8 +1735,14 @@
       <c r="F16" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1658,8 +1761,14 @@
       <c r="F17" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1678,8 +1787,14 @@
       <c r="F18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1698,8 +1813,14 @@
       <c r="F19" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1718,8 +1839,14 @@
       <c r="F20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1865,14 @@
       <c r="F21" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1758,8 +1891,14 @@
       <c r="F22" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1778,8 +1917,14 @@
       <c r="F23" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1798,8 +1943,14 @@
       <c r="F24" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1969,14 @@
       <c r="F25" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1838,8 +1995,14 @@
       <c r="F26" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +2021,14 @@
       <c r="F27" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1878,8 +2047,14 @@
       <c r="F28" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1898,8 +2073,14 @@
       <c r="F29" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1918,8 +2099,14 @@
       <c r="F30" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1938,8 +2125,14 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1958,8 +2151,14 @@
       <c r="F32" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1978,8 +2177,14 @@
       <c r="F33" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1998,8 +2203,14 @@
       <c r="F34" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2018,8 +2229,14 @@
       <c r="F35" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2038,8 +2255,14 @@
       <c r="F36" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2058,8 +2281,14 @@
       <c r="F37" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2078,8 +2307,14 @@
       <c r="F38" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2098,8 +2333,14 @@
       <c r="F39" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2118,8 +2359,14 @@
       <c r="F40" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2138,14 +2385,23 @@
       <c r="F41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42" t="s">
         <v>174</v>
       </c>
@@ -2155,8 +2411,14 @@
       <c r="F42" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2175,14 +2437,23 @@
       <c r="F43" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44" t="s">
         <v>176</v>
       </c>
@@ -2192,8 +2463,14 @@
       <c r="F44" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2212,8 +2489,14 @@
       <c r="F45" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2232,8 +2515,14 @@
       <c r="F46" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2252,14 +2541,23 @@
       <c r="F47" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48" t="s">
         <v>180</v>
       </c>
@@ -2269,8 +2567,14 @@
       <c r="F48" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2289,8 +2593,14 @@
       <c r="F49" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2309,8 +2619,14 @@
       <c r="F50" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2329,8 +2645,14 @@
       <c r="F51" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2349,8 +2671,14 @@
       <c r="F52" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2369,8 +2697,14 @@
       <c r="F53" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2389,8 +2723,14 @@
       <c r="F54" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2409,8 +2749,14 @@
       <c r="F55" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2429,8 +2775,14 @@
       <c r="F56" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2449,8 +2801,14 @@
       <c r="F57" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2827,14 @@
       <c r="F58" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2489,8 +2853,14 @@
       <c r="F59" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2509,8 +2879,14 @@
       <c r="F60" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2529,8 +2905,14 @@
       <c r="F61" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2549,8 +2931,14 @@
       <c r="F62" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2569,8 +2957,14 @@
       <c r="F63" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2589,8 +2983,14 @@
       <c r="F64" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2609,8 +3009,14 @@
       <c r="F65" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2629,8 +3035,14 @@
       <c r="F66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2649,8 +3061,14 @@
       <c r="F67" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2669,8 +3087,14 @@
       <c r="F68" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2689,8 +3113,14 @@
       <c r="F69" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2709,8 +3139,14 @@
       <c r="F70" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2729,8 +3165,14 @@
       <c r="F71" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2749,8 +3191,14 @@
       <c r="F72" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2769,8 +3217,14 @@
       <c r="F73" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2789,8 +3243,14 @@
       <c r="F74" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2809,8 +3269,14 @@
       <c r="F75" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2829,8 +3295,14 @@
       <c r="F76" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2849,8 +3321,14 @@
       <c r="F77" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2869,8 +3347,14 @@
       <c r="F78" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2889,8 +3373,14 @@
       <c r="F79" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2909,8 +3399,14 @@
       <c r="F80" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2929,8 +3425,14 @@
       <c r="F81" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2949,8 +3451,14 @@
       <c r="F82" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2969,8 +3477,14 @@
       <c r="F83" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2989,8 +3503,14 @@
       <c r="F84" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3009,8 +3529,14 @@
       <c r="F85" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3029,8 +3555,14 @@
       <c r="F86" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3049,8 +3581,14 @@
       <c r="F87" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3069,8 +3607,14 @@
       <c r="F88" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3089,8 +3633,14 @@
       <c r="F89" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3109,8 +3659,14 @@
       <c r="F90" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3129,8 +3685,14 @@
       <c r="F91" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3149,8 +3711,14 @@
       <c r="F92" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3169,8 +3737,14 @@
       <c r="F93" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3189,8 +3763,14 @@
       <c r="F94" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3209,8 +3789,14 @@
       <c r="F95" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3229,8 +3815,14 @@
       <c r="F96" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3249,8 +3841,14 @@
       <c r="F97" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3269,8 +3867,14 @@
       <c r="F98" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3289,8 +3893,14 @@
       <c r="F99" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3309,8 +3919,14 @@
       <c r="F100" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3329,8 +3945,14 @@
       <c r="F101" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3349,8 +3971,14 @@
       <c r="F102" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3369,8 +3997,14 @@
       <c r="F103" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3389,8 +4023,14 @@
       <c r="F104" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3409,8 +4049,14 @@
       <c r="F105" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3429,8 +4075,14 @@
       <c r="F106" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3449,8 +4101,14 @@
       <c r="F107" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3469,8 +4127,14 @@
       <c r="F108" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3489,8 +4153,14 @@
       <c r="F109" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3509,8 +4179,14 @@
       <c r="F110" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3529,8 +4205,14 @@
       <c r="F111" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3549,8 +4231,14 @@
       <c r="F112" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3569,8 +4257,14 @@
       <c r="F113" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3589,8 +4283,14 @@
       <c r="F114" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3609,8 +4309,14 @@
       <c r="F115" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3629,8 +4335,14 @@
       <c r="F116" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3649,8 +4361,14 @@
       <c r="F117" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3669,8 +4387,14 @@
       <c r="F118" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3689,8 +4413,14 @@
       <c r="F119" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3709,8 +4439,14 @@
       <c r="F120" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3729,8 +4465,14 @@
       <c r="F121" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3749,8 +4491,14 @@
       <c r="F122" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3769,8 +4517,14 @@
       <c r="F123" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3789,8 +4543,14 @@
       <c r="F124" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3809,8 +4569,14 @@
       <c r="F125" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3829,8 +4595,14 @@
       <c r="F126" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3849,8 +4621,14 @@
       <c r="F127" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3869,8 +4647,14 @@
       <c r="F128" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3889,8 +4673,14 @@
       <c r="F129" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3909,8 +4699,14 @@
       <c r="F130" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3928,6 +4724,12 @@
       </c>
       <c r="F131" t="s">
         <v>289</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BC221-B4A5-3048-9E3C-76595F841366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F662A50-9145-E743-BE5A-4300E46DF680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29780" yWindow="1740" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
+    <workbookView xWindow="26160" yWindow="1740" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="433">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -940,6 +940,399 @@
   </si>
   <si>
     <t>Sentencia2</t>
+  </si>
+  <si>
+    <t>130350</t>
+  </si>
+  <si>
+    <t>130396</t>
+  </si>
+  <si>
+    <t>132661</t>
+  </si>
+  <si>
+    <t>132352</t>
+  </si>
+  <si>
+    <t>131225</t>
+  </si>
+  <si>
+    <t>130533</t>
+  </si>
+  <si>
+    <t>132096</t>
+  </si>
+  <si>
+    <t>130926</t>
+  </si>
+  <si>
+    <t>132079</t>
+  </si>
+  <si>
+    <t>132445</t>
+  </si>
+  <si>
+    <t>132826</t>
+  </si>
+  <si>
+    <t>130268</t>
+  </si>
+  <si>
+    <t>131134</t>
+  </si>
+  <si>
+    <t>131694</t>
+  </si>
+  <si>
+    <t>133254</t>
+  </si>
+  <si>
+    <t>131288</t>
+  </si>
+  <si>
+    <t>132548</t>
+  </si>
+  <si>
+    <t>132482</t>
+  </si>
+  <si>
+    <t>130339</t>
+  </si>
+  <si>
+    <t>131841</t>
+  </si>
+  <si>
+    <t>131192</t>
+  </si>
+  <si>
+    <t>131385</t>
+  </si>
+  <si>
+    <t>132455</t>
+  </si>
+  <si>
+    <t>130329</t>
+  </si>
+  <si>
+    <t>131090</t>
+  </si>
+  <si>
+    <t>131311</t>
+  </si>
+  <si>
+    <t>131890</t>
+  </si>
+  <si>
+    <t>131917</t>
+  </si>
+  <si>
+    <t>131377</t>
+  </si>
+  <si>
+    <t>132397</t>
+  </si>
+  <si>
+    <t>132594</t>
+  </si>
+  <si>
+    <t>131307</t>
+  </si>
+  <si>
+    <t>130982</t>
+  </si>
+  <si>
+    <t>130286</t>
+  </si>
+  <si>
+    <t>131256</t>
+  </si>
+  <si>
+    <t>130257</t>
+  </si>
+  <si>
+    <t>130334</t>
+  </si>
+  <si>
+    <t>133505</t>
+  </si>
+  <si>
+    <t>132964</t>
+  </si>
+  <si>
+    <t>132755</t>
+  </si>
+  <si>
+    <t>131137</t>
+  </si>
+  <si>
+    <t>133552</t>
+  </si>
+  <si>
+    <t>131430</t>
+  </si>
+  <si>
+    <t>131207</t>
+  </si>
+  <si>
+    <t>133323</t>
+  </si>
+  <si>
+    <t>131620</t>
+  </si>
+  <si>
+    <t>131512</t>
+  </si>
+  <si>
+    <t>132067</t>
+  </si>
+  <si>
+    <t>131867</t>
+  </si>
+  <si>
+    <t>131708</t>
+  </si>
+  <si>
+    <t>132407</t>
+  </si>
+  <si>
+    <t>132433</t>
+  </si>
+  <si>
+    <t>131949</t>
+  </si>
+  <si>
+    <t>130356</t>
+  </si>
+  <si>
+    <t>132344</t>
+  </si>
+  <si>
+    <t>130806</t>
+  </si>
+  <si>
+    <t>131704</t>
+  </si>
+  <si>
+    <t>130417</t>
+  </si>
+  <si>
+    <t>131832</t>
+  </si>
+  <si>
+    <t>131444</t>
+  </si>
+  <si>
+    <t>133081</t>
+  </si>
+  <si>
+    <t>131196</t>
+  </si>
+  <si>
+    <t>131104</t>
+  </si>
+  <si>
+    <t>131852</t>
+  </si>
+  <si>
+    <t>133058</t>
+  </si>
+  <si>
+    <t>131981</t>
+  </si>
+  <si>
+    <t>132200</t>
+  </si>
+  <si>
+    <t>131169</t>
+  </si>
+  <si>
+    <t>130469</t>
+  </si>
+  <si>
+    <t>132077</t>
+  </si>
+  <si>
+    <t>130445</t>
+  </si>
+  <si>
+    <t>131973</t>
+  </si>
+  <si>
+    <t>132297</t>
+  </si>
+  <si>
+    <t>130326</t>
+  </si>
+  <si>
+    <t>130892</t>
+  </si>
+  <si>
+    <t>130957</t>
+  </si>
+  <si>
+    <t>133100</t>
+  </si>
+  <si>
+    <t>131817</t>
+  </si>
+  <si>
+    <t>132309</t>
+  </si>
+  <si>
+    <t>132739</t>
+  </si>
+  <si>
+    <t>130972</t>
+  </si>
+  <si>
+    <t>131233</t>
+  </si>
+  <si>
+    <t>133138</t>
+  </si>
+  <si>
+    <t>132411</t>
+  </si>
+  <si>
+    <t>133374</t>
+  </si>
+  <si>
+    <t>131907</t>
+  </si>
+  <si>
+    <t>131004</t>
+  </si>
+  <si>
+    <t>130259</t>
+  </si>
+  <si>
+    <t>132246</t>
+  </si>
+  <si>
+    <t>130274</t>
+  </si>
+  <si>
+    <t>130816</t>
+  </si>
+  <si>
+    <t>131912</t>
+  </si>
+  <si>
+    <t>131133</t>
+  </si>
+  <si>
+    <t>130346</t>
+  </si>
+  <si>
+    <t>130336</t>
+  </si>
+  <si>
+    <t>133333</t>
+  </si>
+  <si>
+    <t>132381</t>
+  </si>
+  <si>
+    <t>131467</t>
+  </si>
+  <si>
+    <t>132019</t>
+  </si>
+  <si>
+    <t>130347</t>
+  </si>
+  <si>
+    <t>131197</t>
+  </si>
+  <si>
+    <t>130262</t>
+  </si>
+  <si>
+    <t>131534</t>
+  </si>
+  <si>
+    <t>131541</t>
+  </si>
+  <si>
+    <t>132276</t>
+  </si>
+  <si>
+    <t>131530</t>
+  </si>
+  <si>
+    <t>132738</t>
+  </si>
+  <si>
+    <t>132564</t>
+  </si>
+  <si>
+    <t>131277</t>
+  </si>
+  <si>
+    <t>130255</t>
+  </si>
+  <si>
+    <t>131333</t>
+  </si>
+  <si>
+    <t>133587</t>
+  </si>
+  <si>
+    <t>132978</t>
+  </si>
+  <si>
+    <t>132824</t>
+  </si>
+  <si>
+    <t>131000</t>
+  </si>
+  <si>
+    <t>132553</t>
+  </si>
+  <si>
+    <t>131998</t>
+  </si>
+  <si>
+    <t>130794</t>
+  </si>
+  <si>
+    <t>131245</t>
+  </si>
+  <si>
+    <t>130373</t>
+  </si>
+  <si>
+    <t>131590</t>
+  </si>
+  <si>
+    <t>130511</t>
+  </si>
+  <si>
+    <t>133464</t>
+  </si>
+  <si>
+    <t>132046</t>
+  </si>
+  <si>
+    <t>130846</t>
+  </si>
+  <si>
+    <t>130361</t>
+  </si>
+  <si>
+    <t>130893</t>
+  </si>
+  <si>
+    <t>130735</t>
+  </si>
+  <si>
+    <t>131835</t>
+  </si>
+  <si>
+    <t>131756</t>
+  </si>
+  <si>
+    <t>idHojaDvida</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H131"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1719,7 @@
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1351,8 +1744,11 @@
       <c r="H1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1377,8 +1773,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1403,8 +1802,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1429,8 +1831,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1455,8 +1860,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1481,8 +1889,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1507,8 +1918,11 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1533,8 +1947,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1559,8 +1976,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1585,8 +2005,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1611,8 +2034,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1637,8 +2063,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1663,8 +2092,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1689,8 +2121,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1715,8 +2150,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1741,8 +2179,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1767,8 +2208,11 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1793,8 +2237,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1819,8 +2266,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1845,8 +2295,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1871,8 +2324,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1897,8 +2353,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1923,8 +2382,11 @@
       <c r="H23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1949,8 +2411,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1975,8 +2440,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2469,11 @@
       <c r="H26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2027,8 +2498,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2527,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2079,8 +2556,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2105,8 +2585,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2131,8 +2614,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2157,8 +2643,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2183,8 +2672,11 @@
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2701,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2235,8 +2730,11 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2261,8 +2759,11 @@
       <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2287,8 +2788,11 @@
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2313,8 +2817,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2846,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2365,8 +2875,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2391,8 +2904,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2417,8 +2933,11 @@
       <c r="H42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2443,8 +2962,11 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2469,8 +2991,11 @@
       <c r="H44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2495,8 +3020,11 @@
       <c r="H45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2521,8 +3049,11 @@
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2547,8 +3078,11 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2573,8 +3107,11 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2599,8 +3136,11 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2625,8 +3165,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2651,8 +3194,11 @@
       <c r="H51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2677,8 +3223,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2703,8 +3252,11 @@
       <c r="H53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2729,8 +3281,11 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2755,8 +3310,11 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2781,8 +3339,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2807,8 +3368,11 @@
       <c r="H57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2833,8 +3397,11 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2859,8 +3426,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2885,8 +3455,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3484,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2937,8 +3513,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2963,8 +3542,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2989,8 +3571,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3015,8 +3600,11 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3041,8 +3629,11 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3067,8 +3658,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3093,8 +3687,11 @@
       <c r="H68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3119,8 +3716,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3145,8 +3745,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3171,8 +3774,11 @@
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3197,8 +3803,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3223,8 +3832,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3249,8 +3861,11 @@
       <c r="H74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3275,8 +3890,11 @@
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3301,8 +3919,11 @@
       <c r="H76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3327,8 +3948,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3353,8 +3977,11 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3379,8 +4006,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3405,8 +4035,11 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3431,8 +4064,11 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3457,8 +4093,11 @@
       <c r="H82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3483,8 +4122,11 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3509,8 +4151,11 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3535,8 +4180,11 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3561,8 +4209,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3587,8 +4238,11 @@
       <c r="H87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3613,8 +4267,11 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3639,8 +4296,11 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3665,8 +4325,11 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3691,8 +4354,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3717,8 +4383,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3743,8 +4412,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3769,8 +4441,11 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3795,8 +4470,11 @@
       <c r="H95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3821,8 +4499,11 @@
       <c r="H96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3847,8 +4528,11 @@
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3873,8 +4557,11 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3899,8 +4586,11 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3925,8 +4615,11 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3951,8 +4644,11 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3977,8 +4673,11 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4003,8 +4702,11 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4029,8 +4731,11 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4055,8 +4760,11 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4081,8 +4789,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4107,8 +4818,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4133,8 +4847,11 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4159,8 +4876,11 @@
       <c r="H109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4185,8 +4905,11 @@
       <c r="H110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4211,8 +4934,11 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4237,8 +4963,11 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4263,8 +4992,11 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4289,8 +5021,11 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4315,8 +5050,11 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4341,8 +5079,11 @@
       <c r="H116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4367,8 +5108,11 @@
       <c r="H117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4393,8 +5137,11 @@
       <c r="H118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4419,8 +5166,11 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4445,8 +5195,11 @@
       <c r="H120">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4471,8 +5224,11 @@
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4497,8 +5253,11 @@
       <c r="H122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4523,8 +5282,11 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4549,8 +5311,11 @@
       <c r="H124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4575,8 +5340,11 @@
       <c r="H125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4601,8 +5369,11 @@
       <c r="H126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4627,8 +5398,11 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4653,8 +5427,11 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4679,8 +5456,11 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4705,8 +5485,11 @@
       <c r="H130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4730,6 +5513,9 @@
       </c>
       <c r="H131">
         <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/muro-verguenza-peru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BC221-B4A5-3048-9E3C-76595F841366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D630E277-4A88-5242-A2AC-6840DC57DBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29780" yWindow="1740" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
+    <workbookView xWindow="300" yWindow="800" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$131</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="303">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -940,6 +944,9 @@
   </si>
   <si>
     <t>Sentencia2</t>
+  </si>
+  <si>
+    <t>PROTESTA1</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H131"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1333,7 @@
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1351,8 +1358,11 @@
       <c r="H1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1923,8 +1933,11 @@
       <c r="H23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2066,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2106,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2158,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2183,8 +2199,11 @@
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2210,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2235,8 +2254,11 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2288,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2340,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2366,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2391,8 +2413,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2418,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2470,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2496,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2548,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2574,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2600,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2626,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2652,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2678,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2756,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2808,7 +2833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2834,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2860,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2886,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2912,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2938,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2963,8 +2988,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2990,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3016,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3042,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3068,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3094,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3172,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3198,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3224,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3250,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3276,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3301,8 +3329,11 @@
       <c r="H76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3328,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3354,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3380,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3406,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3458,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3484,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3510,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3536,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3562,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3588,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3614,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3640,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3666,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3692,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3718,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3743,8 +3774,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3770,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3796,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3822,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3848,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3874,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3900,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3926,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3951,8 +3985,11 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3978,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4004,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4030,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4056,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4082,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4108,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4134,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4160,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4186,7 +4223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4212,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4238,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4263,8 +4300,11 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4290,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4316,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4342,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4368,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4420,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4446,7 +4486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4472,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4498,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4524,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4550,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4576,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4602,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4628,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4865,4 +4905,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D05CD-8E6C-C542-AC71-2E25013345F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/decidebienMuro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F662A50-9145-E743-BE5A-4300E46DF680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BEC996C-DCBE-D645-BFF7-76224C0D611C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26160" yWindow="1740" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
+    <workbookView xWindow="300" yWindow="620" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$131</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="303">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -942,397 +946,7 @@
     <t>Sentencia2</t>
   </si>
   <si>
-    <t>130350</t>
-  </si>
-  <si>
-    <t>130396</t>
-  </si>
-  <si>
-    <t>132661</t>
-  </si>
-  <si>
-    <t>132352</t>
-  </si>
-  <si>
-    <t>131225</t>
-  </si>
-  <si>
-    <t>130533</t>
-  </si>
-  <si>
-    <t>132096</t>
-  </si>
-  <si>
-    <t>130926</t>
-  </si>
-  <si>
-    <t>132079</t>
-  </si>
-  <si>
-    <t>132445</t>
-  </si>
-  <si>
-    <t>132826</t>
-  </si>
-  <si>
-    <t>130268</t>
-  </si>
-  <si>
-    <t>131134</t>
-  </si>
-  <si>
-    <t>131694</t>
-  </si>
-  <si>
-    <t>133254</t>
-  </si>
-  <si>
-    <t>131288</t>
-  </si>
-  <si>
-    <t>132548</t>
-  </si>
-  <si>
-    <t>132482</t>
-  </si>
-  <si>
-    <t>130339</t>
-  </si>
-  <si>
-    <t>131841</t>
-  </si>
-  <si>
-    <t>131192</t>
-  </si>
-  <si>
-    <t>131385</t>
-  </si>
-  <si>
-    <t>132455</t>
-  </si>
-  <si>
-    <t>130329</t>
-  </si>
-  <si>
-    <t>131090</t>
-  </si>
-  <si>
-    <t>131311</t>
-  </si>
-  <si>
-    <t>131890</t>
-  </si>
-  <si>
-    <t>131917</t>
-  </si>
-  <si>
-    <t>131377</t>
-  </si>
-  <si>
-    <t>132397</t>
-  </si>
-  <si>
-    <t>132594</t>
-  </si>
-  <si>
-    <t>131307</t>
-  </si>
-  <si>
-    <t>130982</t>
-  </si>
-  <si>
-    <t>130286</t>
-  </si>
-  <si>
-    <t>131256</t>
-  </si>
-  <si>
-    <t>130257</t>
-  </si>
-  <si>
-    <t>130334</t>
-  </si>
-  <si>
-    <t>133505</t>
-  </si>
-  <si>
-    <t>132964</t>
-  </si>
-  <si>
-    <t>132755</t>
-  </si>
-  <si>
-    <t>131137</t>
-  </si>
-  <si>
-    <t>133552</t>
-  </si>
-  <si>
-    <t>131430</t>
-  </si>
-  <si>
-    <t>131207</t>
-  </si>
-  <si>
-    <t>133323</t>
-  </si>
-  <si>
-    <t>131620</t>
-  </si>
-  <si>
-    <t>131512</t>
-  </si>
-  <si>
-    <t>132067</t>
-  </si>
-  <si>
-    <t>131867</t>
-  </si>
-  <si>
-    <t>131708</t>
-  </si>
-  <si>
-    <t>132407</t>
-  </si>
-  <si>
-    <t>132433</t>
-  </si>
-  <si>
-    <t>131949</t>
-  </si>
-  <si>
-    <t>130356</t>
-  </si>
-  <si>
-    <t>132344</t>
-  </si>
-  <si>
-    <t>130806</t>
-  </si>
-  <si>
-    <t>131704</t>
-  </si>
-  <si>
-    <t>130417</t>
-  </si>
-  <si>
-    <t>131832</t>
-  </si>
-  <si>
-    <t>131444</t>
-  </si>
-  <si>
-    <t>133081</t>
-  </si>
-  <si>
-    <t>131196</t>
-  </si>
-  <si>
-    <t>131104</t>
-  </si>
-  <si>
-    <t>131852</t>
-  </si>
-  <si>
-    <t>133058</t>
-  </si>
-  <si>
-    <t>131981</t>
-  </si>
-  <si>
-    <t>132200</t>
-  </si>
-  <si>
-    <t>131169</t>
-  </si>
-  <si>
-    <t>130469</t>
-  </si>
-  <si>
-    <t>132077</t>
-  </si>
-  <si>
-    <t>130445</t>
-  </si>
-  <si>
-    <t>131973</t>
-  </si>
-  <si>
-    <t>132297</t>
-  </si>
-  <si>
-    <t>130326</t>
-  </si>
-  <si>
-    <t>130892</t>
-  </si>
-  <si>
-    <t>130957</t>
-  </si>
-  <si>
-    <t>133100</t>
-  </si>
-  <si>
-    <t>131817</t>
-  </si>
-  <si>
-    <t>132309</t>
-  </si>
-  <si>
-    <t>132739</t>
-  </si>
-  <si>
-    <t>130972</t>
-  </si>
-  <si>
-    <t>131233</t>
-  </si>
-  <si>
-    <t>133138</t>
-  </si>
-  <si>
-    <t>132411</t>
-  </si>
-  <si>
-    <t>133374</t>
-  </si>
-  <si>
-    <t>131907</t>
-  </si>
-  <si>
-    <t>131004</t>
-  </si>
-  <si>
-    <t>130259</t>
-  </si>
-  <si>
-    <t>132246</t>
-  </si>
-  <si>
-    <t>130274</t>
-  </si>
-  <si>
-    <t>130816</t>
-  </si>
-  <si>
-    <t>131912</t>
-  </si>
-  <si>
-    <t>131133</t>
-  </si>
-  <si>
-    <t>130346</t>
-  </si>
-  <si>
-    <t>130336</t>
-  </si>
-  <si>
-    <t>133333</t>
-  </si>
-  <si>
-    <t>132381</t>
-  </si>
-  <si>
-    <t>131467</t>
-  </si>
-  <si>
-    <t>132019</t>
-  </si>
-  <si>
-    <t>130347</t>
-  </si>
-  <si>
-    <t>131197</t>
-  </si>
-  <si>
-    <t>130262</t>
-  </si>
-  <si>
-    <t>131534</t>
-  </si>
-  <si>
-    <t>131541</t>
-  </si>
-  <si>
-    <t>132276</t>
-  </si>
-  <si>
-    <t>131530</t>
-  </si>
-  <si>
-    <t>132738</t>
-  </si>
-  <si>
-    <t>132564</t>
-  </si>
-  <si>
-    <t>131277</t>
-  </si>
-  <si>
-    <t>130255</t>
-  </si>
-  <si>
-    <t>131333</t>
-  </si>
-  <si>
-    <t>133587</t>
-  </si>
-  <si>
-    <t>132978</t>
-  </si>
-  <si>
-    <t>132824</t>
-  </si>
-  <si>
-    <t>131000</t>
-  </si>
-  <si>
-    <t>132553</t>
-  </si>
-  <si>
-    <t>131998</t>
-  </si>
-  <si>
-    <t>130794</t>
-  </si>
-  <si>
-    <t>131245</t>
-  </si>
-  <si>
-    <t>130373</t>
-  </si>
-  <si>
-    <t>131590</t>
-  </si>
-  <si>
-    <t>130511</t>
-  </si>
-  <si>
-    <t>133464</t>
-  </si>
-  <si>
-    <t>132046</t>
-  </si>
-  <si>
-    <t>130846</t>
-  </si>
-  <si>
-    <t>130361</t>
-  </si>
-  <si>
-    <t>130893</t>
-  </si>
-  <si>
-    <t>130735</t>
-  </si>
-  <si>
-    <t>131835</t>
-  </si>
-  <si>
-    <t>131756</t>
-  </si>
-  <si>
-    <t>idHojaDvida</t>
+    <t>PROTESTA1</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1321,7 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1359,7 @@
         <v>301</v>
       </c>
       <c r="I1" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1773,9 +1387,6 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1801,9 +1412,6 @@
       </c>
       <c r="H3">
         <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1831,9 +1439,6 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1860,9 +1465,6 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1889,9 +1491,6 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1918,9 +1517,6 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1947,9 +1543,6 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1976,9 +1569,6 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2005,9 +1595,6 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2034,9 +1621,6 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2063,9 +1647,6 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2092,9 +1673,6 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2121,9 +1699,6 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2150,9 +1725,6 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2179,9 +1751,6 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2208,9 +1777,6 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2237,9 +1803,6 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2266,9 +1829,6 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2295,9 +1855,6 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2324,9 +1881,6 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2353,9 +1907,6 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -2382,8 +1933,8 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" t="s">
-        <v>323</v>
+      <c r="I23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2411,9 +1962,6 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2440,9 +1988,6 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2469,9 +2014,6 @@
       <c r="H26">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2498,9 +2040,6 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2527,8 +2066,8 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>328</v>
+      <c r="I28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2556,9 +2095,6 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2585,9 +2121,6 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2614,9 +2147,6 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2643,9 +2173,6 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2672,8 +2199,8 @@
       <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
-        <v>333</v>
+      <c r="I33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2701,9 +2228,6 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2730,8 +2254,8 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>335</v>
+      <c r="I35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2759,9 +2283,6 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -2788,9 +2309,6 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -2817,9 +2335,6 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -2846,9 +2361,6 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2875,9 +2387,6 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2904,8 +2413,8 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>341</v>
+      <c r="I41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2933,9 +2442,6 @@
       <c r="H42">
         <v>2</v>
       </c>
-      <c r="I42" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2962,9 +2468,6 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -2991,9 +2494,6 @@
       <c r="H44">
         <v>2</v>
       </c>
-      <c r="I44" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3020,9 +2520,6 @@
       <c r="H45">
         <v>3</v>
       </c>
-      <c r="I45" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -3049,9 +2546,6 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -3078,9 +2572,6 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>347</v>
-      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -3107,9 +2598,6 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>348</v>
-      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -3136,9 +2624,6 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -3165,9 +2650,6 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -3194,9 +2676,6 @@
       <c r="H51">
         <v>3</v>
       </c>
-      <c r="I51" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -3223,9 +2702,6 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -3252,9 +2728,6 @@
       <c r="H53">
         <v>2</v>
       </c>
-      <c r="I53" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -3281,9 +2754,6 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -3310,9 +2780,6 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -3339,9 +2806,6 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -3368,9 +2832,6 @@
       <c r="H57">
         <v>3</v>
       </c>
-      <c r="I57" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -3397,9 +2858,6 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -3426,9 +2884,6 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -3455,9 +2910,6 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -3484,9 +2936,6 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -3513,9 +2962,6 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -3542,8 +2988,8 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>363</v>
+      <c r="I63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3571,9 +3017,6 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -3600,9 +3043,6 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -3629,9 +3069,6 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -3658,9 +3095,6 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>367</v>
-      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -3687,9 +3121,6 @@
       <c r="H68">
         <v>3</v>
       </c>
-      <c r="I68" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -3716,9 +3147,6 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -3745,9 +3173,6 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -3774,9 +3199,6 @@
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -3803,9 +3225,6 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -3832,9 +3251,6 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -3861,9 +3277,6 @@
       <c r="H74">
         <v>2</v>
       </c>
-      <c r="I74" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -3890,9 +3303,6 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -3919,8 +3329,8 @@
       <c r="H76">
         <v>2</v>
       </c>
-      <c r="I76" t="s">
-        <v>376</v>
+      <c r="I76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3948,9 +3358,6 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -3977,9 +3384,6 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -4006,9 +3410,6 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>379</v>
-      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -4035,9 +3436,6 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -4064,9 +3462,6 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>381</v>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -4093,9 +3488,6 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c r="I82" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -4122,9 +3514,6 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -4151,9 +3540,6 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -4180,9 +3566,6 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -4209,9 +3592,6 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -4238,9 +3618,6 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -4267,9 +3644,6 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -4296,9 +3670,6 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -4325,9 +3696,6 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -4354,9 +3722,6 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -4383,9 +3748,6 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -4412,8 +3774,8 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
-        <v>393</v>
+      <c r="I93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4441,9 +3803,6 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -4470,9 +3829,6 @@
       <c r="H95">
         <v>1</v>
       </c>
-      <c r="I95" t="s">
-        <v>395</v>
-      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -4499,9 +3855,6 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -4528,9 +3881,6 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -4557,9 +3907,6 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -4586,9 +3933,6 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -4615,9 +3959,6 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -4644,8 +3985,8 @@
       <c r="H101">
         <v>1</v>
       </c>
-      <c r="I101" t="s">
-        <v>401</v>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4673,9 +4014,6 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -4702,9 +4040,6 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -4731,9 +4066,6 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -4760,9 +4092,6 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -4789,9 +4118,6 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -4818,9 +4144,6 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -4847,9 +4170,6 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
-        <v>408</v>
-      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -4876,9 +4196,6 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -4905,9 +4222,6 @@
       <c r="H110">
         <v>3</v>
       </c>
-      <c r="I110" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -4934,9 +4248,6 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -4963,9 +4274,6 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -4992,8 +4300,8 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>413</v>
+      <c r="I113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5021,9 +4329,6 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="s">
-        <v>414</v>
-      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -5050,9 +4355,6 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -5079,9 +4381,6 @@
       <c r="H116">
         <v>2</v>
       </c>
-      <c r="I116" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -5108,9 +4407,6 @@
       <c r="H117">
         <v>1</v>
       </c>
-      <c r="I117" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -5137,9 +4433,6 @@
       <c r="H118">
         <v>2</v>
       </c>
-      <c r="I118" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -5166,9 +4459,6 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -5195,9 +4485,6 @@
       <c r="H120">
         <v>3</v>
       </c>
-      <c r="I120" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -5224,9 +4511,6 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -5253,9 +4537,6 @@
       <c r="H122">
         <v>2</v>
       </c>
-      <c r="I122" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -5282,9 +4563,6 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -5311,9 +4589,6 @@
       <c r="H124">
         <v>2</v>
       </c>
-      <c r="I124" t="s">
-        <v>424</v>
-      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -5340,9 +4615,6 @@
       <c r="H125">
         <v>1</v>
       </c>
-      <c r="I125" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -5369,9 +4641,6 @@
       <c r="H126">
         <v>1</v>
       </c>
-      <c r="I126" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -5398,9 +4667,6 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -5427,11 +4693,8 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -5456,11 +4719,8 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -5485,11 +4745,8 @@
       <c r="H130">
         <v>2</v>
       </c>
-      <c r="I130" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -5513,9 +4770,6 @@
       </c>
       <c r="H131">
         <v>0</v>
-      </c>
-      <c r="I131" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5651,4 +4905,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D05CD-8E6C-C542-AC71-2E25013345F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/decidebienMuro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BEC996C-DCBE-D645-BFF7-76224C0D611C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C000A1D7-D332-DD40-9A22-09BD2A2DE6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="620" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$131</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2675,6 +2675,9 @@
       </c>
       <c r="H51">
         <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">

--- a/infocongresistas.xlsx
+++ b/infocongresistas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/decidebienMuro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C000A1D7-D332-DD40-9A22-09BD2A2DE6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8152ADE1-1CFF-5946-892B-DC23EED3713A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="620" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="304">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -947,13 +947,16 @@
   </si>
   <si>
     <t>PROTESTA1</t>
+  </si>
+  <si>
+    <t>idHojaVida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -965,6 +968,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -997,12 +1007,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1318,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1344,7 @@
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1361,8 +1372,11 @@
       <c r="I1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1387,8 +1401,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3">
+        <v>130350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1413,8 +1430,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3">
+        <v>130396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1439,8 +1459,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3">
+        <v>132661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1465,8 +1488,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="3">
+        <v>132352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1491,8 +1517,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="3">
+        <v>131225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1517,8 +1546,11 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3">
+        <v>130533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1543,8 +1575,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="3">
+        <v>132096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1569,8 +1604,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3">
+        <v>130926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1595,8 +1633,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="3">
+        <v>132079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1621,8 +1662,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="3">
+        <v>132445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1647,8 +1691,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="3">
+        <v>132826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1673,8 +1720,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="3">
+        <v>130268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1699,8 +1749,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="3">
+        <v>131134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1725,8 +1778,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="3">
+        <v>131694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1751,8 +1807,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="3">
+        <v>133254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1777,8 +1836,11 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="3">
+        <v>131288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1803,8 +1865,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="3">
+        <v>132548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1829,8 +1894,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="3">
+        <v>132482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1855,8 +1923,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="3">
+        <v>130339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1881,8 +1952,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="3">
+        <v>131841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1981,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="3">
+        <v>131192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1936,8 +2013,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="3">
+        <v>131385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1962,8 +2042,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="3">
+        <v>132455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1988,8 +2071,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="3">
+        <v>130329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2014,8 +2100,11 @@
       <c r="H26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="3">
+        <v>131090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2040,8 +2129,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="3">
+        <v>131311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2069,8 +2161,11 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="3">
+        <v>131890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2095,8 +2190,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="3">
+        <v>131917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2121,8 +2219,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="3">
+        <v>131377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2147,8 +2248,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="3">
+        <v>132397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2173,8 +2277,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="3">
+        <v>132594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2202,8 +2309,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="3">
+        <v>131307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2228,8 +2338,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="3">
+        <v>130982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2257,8 +2370,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="3">
+        <v>130286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2283,8 +2399,11 @@
       <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="3">
+        <v>131256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2309,8 +2428,11 @@
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="3">
+        <v>130257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2335,8 +2457,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="3">
+        <v>130334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2361,8 +2486,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="3">
+        <v>133505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2515,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="3">
+        <v>132964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2416,8 +2547,11 @@
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="3">
+        <v>132755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2442,8 +2576,11 @@
       <c r="H42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="3">
+        <v>131137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2468,8 +2605,11 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="3">
+        <v>133552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2494,8 +2634,11 @@
       <c r="H44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="3">
+        <v>131430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2663,11 @@
       <c r="H45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="3">
+        <v>131207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2546,8 +2692,11 @@
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="3">
+        <v>133323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2572,8 +2721,11 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="3">
+        <v>131620</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2598,8 +2750,11 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="3">
+        <v>131512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2624,8 +2779,11 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="3">
+        <v>132067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2650,8 +2808,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="3">
+        <v>131867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2679,8 +2840,11 @@
       <c r="I51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="3">
+        <v>131708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2705,8 +2869,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="3">
+        <v>132407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2731,8 +2898,11 @@
       <c r="H53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="3">
+        <v>132433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2757,8 +2927,11 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="3">
+        <v>131949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2783,8 +2956,11 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="3">
+        <v>130356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2809,8 +2985,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="3">
+        <v>132344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="H57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="3">
+        <v>130806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2861,8 +3043,11 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="3">
+        <v>131704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2887,8 +3072,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="3">
+        <v>130417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2913,8 +3101,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J60" s="3">
+        <v>131832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2939,8 +3130,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="3">
+        <v>131444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2965,8 +3159,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="3">
+        <v>133081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3191,11 @@
       <c r="I63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="3">
+        <v>131196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3020,8 +3220,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="3">
+        <v>131104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3046,8 +3249,11 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="3">
+        <v>131852</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3072,8 +3278,11 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J66" s="3">
+        <v>133058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3098,8 +3307,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="3">
+        <v>131981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3124,8 +3336,11 @@
       <c r="H68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="3">
+        <v>132200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3150,8 +3365,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="3">
+        <v>131169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3176,8 +3394,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="3">
+        <v>130469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3202,8 +3423,11 @@
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="3">
+        <v>132077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3228,8 +3452,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="3">
+        <v>130445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3254,8 +3481,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="3">
+        <v>131973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3280,8 +3510,11 @@
       <c r="H74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="3">
+        <v>132297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3539,11 @@
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="3">
+        <v>130326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3335,8 +3571,11 @@
       <c r="I76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="3">
+        <v>130892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3361,8 +3600,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="3">
+        <v>130957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3387,8 +3629,11 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="3">
+        <v>133100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3413,8 +3658,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="3">
+        <v>131817</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3439,8 +3687,11 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="3">
+        <v>132309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3465,8 +3716,11 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="3">
+        <v>132739</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3491,8 +3745,11 @@
       <c r="H82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="3">
+        <v>130972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3517,8 +3774,11 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="3">
+        <v>131233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3543,8 +3803,11 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="3">
+        <v>133138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3569,8 +3832,11 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="3">
+        <v>132411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3595,8 +3861,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="3">
+        <v>133374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3621,8 +3890,11 @@
       <c r="H87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="3">
+        <v>131907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3647,8 +3919,11 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="3">
+        <v>131004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3673,8 +3948,11 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="3">
+        <v>130259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3699,8 +3977,11 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="3">
+        <v>132246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3725,8 +4006,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="3">
+        <v>130274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3751,8 +4035,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="3">
+        <v>130816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3780,8 +4067,11 @@
       <c r="I93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="3">
+        <v>131912</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3806,8 +4096,11 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="3">
+        <v>131133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3832,8 +4125,11 @@
       <c r="H95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="3">
+        <v>130346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3858,8 +4154,11 @@
       <c r="H96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="3">
+        <v>130336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3884,8 +4183,11 @@
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="3">
+        <v>133333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3910,8 +4212,11 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="3">
+        <v>132381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3936,8 +4241,11 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="3">
+        <v>131467</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3962,8 +4270,11 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="3">
+        <v>132019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3991,8 +4302,11 @@
       <c r="I101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>130347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4017,8 +4331,11 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="3">
+        <v>131197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4043,8 +4360,11 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="3">
+        <v>130262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4069,8 +4389,11 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="3">
+        <v>131534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4095,8 +4418,11 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="3">
+        <v>131541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4121,8 +4447,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="3">
+        <v>132276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4147,8 +4476,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="3">
+        <v>131530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4173,8 +4505,11 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="3">
+        <v>132738</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4199,8 +4534,11 @@
       <c r="H109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="3">
+        <v>132564</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4225,8 +4563,11 @@
       <c r="H110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="3">
+        <v>131277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4251,8 +4592,11 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="3">
+        <v>130255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4277,8 +4621,11 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="3">
+        <v>131333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4306,8 +4653,11 @@
       <c r="I113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="3">
+        <v>133587</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4332,8 +4682,11 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="3">
+        <v>132978</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4358,8 +4711,11 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="3">
+        <v>132824</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4384,8 +4740,11 @@
       <c r="H116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="3">
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4410,8 +4769,11 @@
       <c r="H117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="3">
+        <v>132553</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4436,8 +4798,11 @@
       <c r="H118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="3">
+        <v>131998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4462,8 +4827,11 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="3">
+        <v>130794</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4488,8 +4856,11 @@
       <c r="H120">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="3">
+        <v>131245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4514,8 +4885,11 @@
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="3">
+        <v>130373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4540,8 +4914,11 @@
       <c r="H122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="3">
+        <v>131590</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4566,8 +4943,11 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="3">
+        <v>130511</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4592,8 +4972,11 @@
       <c r="H124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="3">
+        <v>133464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4618,8 +5001,11 @@
       <c r="H125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="3">
+        <v>132046</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4644,8 +5030,11 @@
       <c r="H126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="3">
+        <v>130846</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4670,8 +5059,11 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="3">
+        <v>130361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4696,8 +5088,11 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J128" s="3">
+        <v>130893</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4722,8 +5117,11 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J129" s="3">
+        <v>130735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4748,8 +5146,11 @@
       <c r="H130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J130" s="3">
+        <v>131835</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4773,6 +5174,9 @@
       </c>
       <c r="H131">
         <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>131756</v>
       </c>
     </row>
   </sheetData>
